--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kingfish\PycharmProjects\kursach_ais_ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9A2BC6-1A37-4ECE-AD45-781BB1374689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9451FD2A-5B6F-4272-BB0D-8B483CA609B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{5167B799-4833-4A16-96D1-4977E6B65D0C}"/>
+    <workbookView xWindow="-30828" yWindow="-1452" windowWidth="30936" windowHeight="16896" xr2:uid="{5167B799-4833-4A16-96D1-4977E6B65D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Сумма НДС:</t>
   </si>
   <si>
-    <t>SUMTOTAL</t>
-  </si>
-  <si>
     <t>SUMTOTALNDS</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">Всего наименований COUNT на сумму </t>
+  </si>
+  <si>
+    <t>SUM11TOTAL</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,7 +619,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -638,7 +638,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -715,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -727,13 +727,13 @@
         <v>8</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="5"/>
@@ -743,7 +743,7 @@
     <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="5"/>
@@ -760,14 +760,14 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
